--- a/Interop_Python/demo_salida_nueva.xlsx
+++ b/Interop_Python/demo_salida_nueva.xlsx
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -430,9 +430,17 @@
     </row>
     <row r="8"/>
     <row r="9"/>
-    <row r="10">
-      <c r="B10" t="s">
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12">
+      <c r="B12" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14" spans="1:2">
+      <c r="B14">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Interop_Python/demo_salida_nueva.xlsx
+++ b/Interop_Python/demo_salida_nueva.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Nombre</t>
   </si>
@@ -33,6 +34,51 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -88,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -96,6 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -441,6 +488,126 @@
     <row r="14" spans="1:2">
       <c r="B14">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -503,4 +670,138 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B4D3E5-DF54-4AE9-B830-D2B9D6983F63}">
+  <dimension ref="C5:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Interop_Python/demo_salida_nueva.xlsx
+++ b/Interop_Python/demo_salida_nueva.xlsx
@@ -10,13 +10,27 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet_copy" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
@@ -49,6 +63,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>1</t>
@@ -458,6 +475,21 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
@@ -466,6 +498,21 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
@@ -474,140 +521,145 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="12">
       <c r="B12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13"/>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="14" spans="1:2">
       <c r="B14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15"/>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -674,15 +726,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B4D3E5-DF54-4AE9-B830-D2B9D6983F63}">
-  <dimension ref="C5:G11"/>
+  <dimension ref="C5:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -699,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -716,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -733,7 +785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -750,7 +802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -767,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -783,8 +835,12 @@
       <c r="G10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>SUM(C6:G11)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -804,4 +860,189 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="str">
+        <f>SUM(C6:G11)</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>